--- a/compare_sids.xlsx
+++ b/compare_sids.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -512,52 +512,144 @@
       </c>
     </row>
     <row r="2" ht="75" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>IPC00015</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Специи</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>IPC0004</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>IPC0006</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IPC0008</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IPC0021</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>IPC0022</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IPC0026</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IPC0027</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>IPC0028</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IPC0031</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2-ая эксп | цех | запасной АЙПИСИ у стены</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IPC0033</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>IPC0034</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
